--- a/metadata/number-sources-metadata.xlsx
+++ b/metadata/number-sources-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/urban-water-drought-data/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/zoe_kanavas_water_ca_gov/Documents/Documents/Water Data Consortium Projects/urban-water-drought-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FB510AE-1647-504C-82D6-E73C840C2096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{4FB510AE-1647-504C-82D6-E73C840C2096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5C64758-7C8A-4E37-BFCB-C0BFC8870371}"/>
   <bookViews>
-    <workbookView xWindow="29700" yWindow="500" windowWidth="31700" windowHeight="27120" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,17 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,8 +36,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={641B59DF-45FC-4D33-B3BA-6BD08B05FF5F}</author>
+    <author>tc={3BDF3F46-8384-4F07-8512-15C3A02A59D6}</author>
+    <author>tc={D079227E-1483-45EE-A3A5-E8A4D8B32D50}</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{641B59DF-45FC-4D33-B3BA-6BD08B05FF5F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not in the csv file</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{3BDF3F46-8384-4F07-8512-15C3A02A59D6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    What does NA mean for this column?</t>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="2" shapeId="0" xr:uid="{D079227E-1483-45EE-A3A5-E8A4D8B32D50}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This seems unreasonably high, right?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -115,28 +162,33 @@
     <t>YYYY</t>
   </si>
   <si>
+    <t>The status of source water. Levels = c("approved", "new")</t>
+  </si>
+  <si>
+    <t>Number of unique sources.</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
     <t>The category of source water. Levels = c("emergency interties", "groundwater", "purchased grounwater", 
-"purchased surface water", "standby sources", "surface water"
-)</t>
-  </si>
-  <si>
-    <t>The status of source water. Levels = c("approved", "new")</t>
-  </si>
-  <si>
-    <t>Number of unique sources.</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>numeric</t>
+"purchased surface water", "standby sources", "surface water")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -149,6 +201,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -178,20 +236,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,6 +329,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kanavas, Zoe@DWR (she/her)" id="{55CD38A6-1061-49E6-A5E9-EAD6ABDC4947}" userId="S::Zoe.Kanavas@water.ca.gov::a9497dc4-3ae7-4325-9eed-74504f04b3ea" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,76 +632,89 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A3" dT="2024-07-31T17:08:44.68" personId="{55CD38A6-1061-49E6-A5E9-EAD6ABDC4947}" id="{641B59DF-45FC-4D33-B3BA-6BD08B05FF5F}">
+    <text>Not in the csv file</text>
+  </threadedComment>
+  <threadedComment ref="B7" dT="2024-07-31T17:04:34.81" personId="{55CD38A6-1061-49E6-A5E9-EAD6ABDC4947}" id="{3BDF3F46-8384-4F07-8512-15C3A02A59D6}">
+    <text>What does NA mean for this column?</text>
+  </threadedComment>
+  <threadedComment ref="M7" dT="2024-07-31T17:08:14.79" personId="{55CD38A6-1061-49E6-A5E9-EAD6ABDC4947}" id="{D079227E-1483-45EE-A3A5-E8A4D8B32D50}">
+    <text>This seems unreasonably high, right?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMG11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3"/>
-    <col min="2" max="2" width="48" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="3" customWidth="1"/>
-    <col min="14" max="1021" width="19.6640625" style="3"/>
-    <col min="1022" max="1024" width="8.33203125" style="4" customWidth="1"/>
-    <col min="1025" max="16384" width="19.6640625" style="4"/>
+    <col min="1" max="1" width="19.625" style="1"/>
+    <col min="2" max="2" width="48" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.125" style="1" customWidth="1"/>
+    <col min="14" max="1021" width="19.625" style="1"/>
+    <col min="1022" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -650,16 +723,21 @@
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -668,26 +746,37 @@
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>28</v>
@@ -702,51 +791,78 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>23237</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G11" s="6"/>
+    <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -768,6 +884,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -779,14 +896,14 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -797,7 +914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/metadata/number-sources-metadata.xlsx
+++ b/metadata/number-sources-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/zoe_kanavas_water_ca_gov/Documents/Documents/Water Data Consortium Projects/urban-water-drought-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{4FB510AE-1647-504C-82D6-E73C840C2096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5C64758-7C8A-4E37-BFCB-C0BFC8870371}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{4FB510AE-1647-504C-82D6-E73C840C2096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D55AF26-AF7D-4651-A9C6-CC94489A339C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-255" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,9 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Not in the csv file</t>
+    Not in the csv file
+Reply:
+    Needs to be added</t>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{3BDF3F46-8384-4F07-8512-15C3A02A59D6}">
@@ -57,7 +59,9 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    What does NA mean for this column?</t>
+    What does NA mean for this column?
+Reply:
+    Ask Eric about this</t>
       </text>
     </comment>
     <comment ref="M7" authorId="2" shapeId="0" xr:uid="{D079227E-1483-45EE-A3A5-E8A4D8B32D50}">
@@ -65,7 +69,9 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This seems unreasonably high, right?</t>
+    This seems unreasonably high, right?
+Reply:
+    Ask Eric about this</t>
       </text>
     </comment>
   </commentList>
@@ -73,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -182,13 +188,19 @@
   <si>
     <t>The category of source water. Levels = c("emergency interties", "groundwater", "purchased grounwater", 
 "purchased surface water", "standby sources", "surface water")</t>
+  </si>
+  <si>
+    <t>eAR</t>
+  </si>
+  <si>
+    <t>UWMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -201,12 +213,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -637,11 +643,20 @@
   <threadedComment ref="A3" dT="2024-07-31T17:08:44.68" personId="{55CD38A6-1061-49E6-A5E9-EAD6ABDC4947}" id="{641B59DF-45FC-4D33-B3BA-6BD08B05FF5F}">
     <text>Not in the csv file</text>
   </threadedComment>
+  <threadedComment ref="A3" dT="2024-07-31T18:33:08.30" personId="{55CD38A6-1061-49E6-A5E9-EAD6ABDC4947}" id="{1DC2D92D-5BD0-4C40-818C-546F93EEB8BB}" parentId="{641B59DF-45FC-4D33-B3BA-6BD08B05FF5F}">
+    <text>Needs to be added</text>
+  </threadedComment>
   <threadedComment ref="B7" dT="2024-07-31T17:04:34.81" personId="{55CD38A6-1061-49E6-A5E9-EAD6ABDC4947}" id="{3BDF3F46-8384-4F07-8512-15C3A02A59D6}">
     <text>What does NA mean for this column?</text>
   </threadedComment>
+  <threadedComment ref="B7" dT="2024-07-31T18:34:55.01" personId="{55CD38A6-1061-49E6-A5E9-EAD6ABDC4947}" id="{E8801352-CF10-4E33-BF93-C7B18D07DF88}" parentId="{3BDF3F46-8384-4F07-8512-15C3A02A59D6}">
+    <text>Ask Eric about this</text>
+  </threadedComment>
   <threadedComment ref="M7" dT="2024-07-31T17:08:14.79" personId="{55CD38A6-1061-49E6-A5E9-EAD6ABDC4947}" id="{D079227E-1483-45EE-A3A5-E8A4D8B32D50}">
     <text>This seems unreasonably high, right?</text>
+  </threadedComment>
+  <threadedComment ref="M7" dT="2024-07-31T18:34:46.51" personId="{55CD38A6-1061-49E6-A5E9-EAD6ABDC4947}" id="{474778B1-CCB1-495F-A11E-58C651F700C5}" parentId="{D079227E-1483-45EE-A3A5-E8A4D8B32D50}">
+    <text>Ask Eric about this</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -651,7 +666,7 @@
   <dimension ref="A1:AMG11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,6 +738,9 @@
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
@@ -746,6 +764,9 @@
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
@@ -769,6 +790,9 @@
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
@@ -801,6 +825,9 @@
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
@@ -821,6 +848,9 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
@@ -840,6 +870,9 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>32</v>
